--- a/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_cn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuho\Desktop\Import templates - 副本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krna/Projects/mes/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A4A53C-61D6-40FC-903D-4A0BD79C21E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0E1D4-DEB9-904D-81A6-39898556C0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales orders position" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -55,6 +56,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -79,6 +81,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -87,6 +90,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -106,6 +110,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo</t>
         </r>
@@ -129,6 +134,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -137,6 +143,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -161,6 +168,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -169,6 +177,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -188,6 +197,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -211,6 +221,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -219,6 +230,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -238,6 +250,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -261,6 +274,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -269,6 +283,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -288,6 +303,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -306,6 +322,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>.</t>
         </r>
@@ -319,6 +336,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -327,6 +345,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -346,6 +365,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -364,6 +384,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -382,6 +403,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>: YYYY-MM-DD HH:MM:SS</t>
         </r>
@@ -395,6 +417,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -403,6 +426,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -422,6 +446,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -440,6 +465,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -458,6 +484,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>: YYYY-MM-DD HH:MM:SS</t>
         </r>
@@ -471,6 +498,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -479,6 +507,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -498,6 +527,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. 
 </t>
@@ -517,6 +547,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>: YYYY-MM-DD HH:MM:SS</t>
         </r>
@@ -530,6 +561,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -538,6 +570,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -557,6 +590,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -575,6 +609,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -594,6 +629,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>: YYYY-MM-DD HH:MM:SS</t>
         </r>
@@ -607,6 +643,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -615,6 +652,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -634,6 +672,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>.</t>
         </r>
@@ -647,6 +686,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -655,6 +695,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -674,6 +715,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
@@ -692,6 +734,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo</t>
         </r>
@@ -712,6 +755,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -725,6 +769,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -733,6 +778,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -757,6 +803,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -765,6 +812,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -784,6 +832,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>:</t>
         </r>
@@ -804,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -861,6 +910,12 @@
     <t>接单日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Delivery date of position</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
 </sst>
 </file>
 
@@ -894,11 +949,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -966,9 +1023,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="238"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="238"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1103,7 +1172,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{7F7E74EB-FAA7-4CC6-8588-50EB3079B849}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1760,32 +1829,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509C9033-BB95-4FBE-92A0-4CB515E0BEFD}" name="masterOrderImportSchema_en" displayName="masterOrderImportSchema_en" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N2" xr:uid="{509C9033-BB95-4FBE-92A0-4CB515E0BEFD}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{23FABA08-3273-4AB7-9597-4F5A70C4A802}" name="编号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{333E4883-B023-4214-B42A-2955249499F1}" name="产品编号" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C2C5E57D-6FF8-4AC2-9D39-0F486D2B0635}" name="数量" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{38BDA567-1F2F-4129-9971-CACDFC7230DF}" name="销售订单名称" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{712BB09D-F8B5-4BA0-8C6B-67E1428AD39D}" name="描述" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D782C7E9-A47A-4544-AB5D-4D3E4A34E11C}" name="客户" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{8F187897-00A6-4184-9F3D-C9E9D6FFAE1A}" name="开始日期" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2AEE7656-FC19-4A25-8B27-7F10864D6B66}" name="结束日期" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{0788B078-0DB2-449F-8885-09A8766A36F3}" name="截止日期" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{200873D5-3A9E-4F92-9648-637A95B6FF84}" name="接单日期" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{07928C99-1DDA-4CFC-AAC0-A58D0AC5D66A}" name="状态描述" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{AA8ABAE0-75A6-49F4-8A32-AA80FCA4EBD7}" name="工艺" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{404241C0-BE8D-4E09-8909-BD1C6A0AB30D}" name="说明" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{43B77B9B-596D-4B8D-BAD8-C925F054EE0F}" name="位置状态" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509C9033-BB95-4FBE-92A0-4CB515E0BEFD}" name="masterOrderImportSchema_en" displayName="masterOrderImportSchema_en" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P2" xr:uid="{509C9033-BB95-4FBE-92A0-4CB515E0BEFD}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{23FABA08-3273-4AB7-9597-4F5A70C4A802}" name="编号" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{333E4883-B023-4214-B42A-2955249499F1}" name="产品编号" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C2C5E57D-6FF8-4AC2-9D39-0F486D2B0635}" name="数量" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{38BDA567-1F2F-4129-9971-CACDFC7230DF}" name="销售订单名称" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{712BB09D-F8B5-4BA0-8C6B-67E1428AD39D}" name="描述" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{D782C7E9-A47A-4544-AB5D-4D3E4A34E11C}" name="客户" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8F187897-00A6-4184-9F3D-C9E9D6FFAE1A}" name="开始日期" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{2AEE7656-FC19-4A25-8B27-7F10864D6B66}" name="结束日期" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{0788B078-0DB2-449F-8885-09A8766A36F3}" name="截止日期" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{200873D5-3A9E-4F92-9648-637A95B6FF84}" name="接单日期" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{07928C99-1DDA-4CFC-AAC0-A58D0AC5D66A}" name="状态描述" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{AA8ABAE0-75A6-49F4-8A32-AA80FCA4EBD7}" name="工艺" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{404241C0-BE8D-4E09-8909-BD1C6A0AB30D}" name="说明" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{43B77B9B-596D-4B8D-BAD8-C925F054EE0F}" name="位置状态" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{CDF395CC-09B1-D148-9811-7FBD24D5D85E}" name="Delivery date of position" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{0EF9D469-D9E9-B745-8229-8986EE2E2AF3}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1823,7 +1894,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1929,7 +2000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2071,7 +2142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2082,21 +2153,21 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="7" max="10" width="20.8984375" customWidth="1"/>
-    <col min="11" max="11" width="27.59765625" customWidth="1"/>
-    <col min="13" max="13" width="20.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="7" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2139,8 +2210,14 @@
       <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2155,6 +2232,8 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
